--- a/biology/Botanique/Merostachys/Merostachys.xlsx
+++ b/biology/Botanique/Merostachys/Merostachys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Merostachys est un genre de plantes monocotylédones de la famille des Poaceae,  sous-famille des Bambusoideae, originaire d'Amérique centrale et d'Amérique du Sud, qui comprend environ quarante espèces. 
 Ce sont des bambous vivaces, aux tiges dressées, aux entrenœoeuds creux ou pleins et aux inflorescences en épis ou racèmes simples.
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (25 octobre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (25 octobre 2017) :
 Merostachys abadiana Send.
 Merostachys annulifera Send.
 Merostachys argentea Send.
